--- a/Data/Input Data/cb_upstr_dwnstr_inp_data.xlsx
+++ b/Data/Input Data/cb_upstr_dwnstr_inp_data.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projects\CB Upstream Downstream Project\Scripts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projects\CB Upstream Downstream Project\Data\Input Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{46CEB381-4D15-467B-A3D1-B2D25E2F2318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C4C804C-10AF-4267-8263-188B44FDC6A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{91DED53B-A105-423C-9B15-3F472DEA3BBB}"/>
+    <workbookView xWindow="28680" yWindow="-450" windowWidth="29040" windowHeight="16440" xr2:uid="{91DED53B-A105-423C-9B15-3F472DEA3BBB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$381</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -447,11 +450,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAC4FBFF-654B-412A-80D9-5F2C76C9AC86}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:E381"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomLeft" activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -477,7 +481,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -494,7 +498,7 @@
         <v>4273</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -511,7 +515,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -528,7 +532,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -545,7 +549,7 @@
         <v>2606</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -562,7 +566,7 @@
         <v>1754</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -579,7 +583,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -596,7 +600,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -613,7 +617,7 @@
         <v>3161</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -630,7 +634,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -647,7 +651,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -664,7 +668,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -681,7 +685,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
@@ -698,7 +702,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
@@ -715,7 +719,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
@@ -732,7 +736,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>6</v>
       </c>
@@ -749,7 +753,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>6</v>
       </c>
@@ -766,7 +770,7 @@
         <v>1882</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
@@ -783,7 +787,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>6</v>
       </c>
@@ -800,7 +804,7 @@
         <v>2319</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>6</v>
       </c>
@@ -817,7 +821,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>6</v>
       </c>
@@ -834,7 +838,7 @@
         <v>1855</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>6</v>
       </c>
@@ -851,7 +855,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>6</v>
       </c>
@@ -868,7 +872,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>6</v>
       </c>
@@ -885,7 +889,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>6</v>
       </c>
@@ -902,7 +906,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>6</v>
       </c>
@@ -919,7 +923,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,7 +940,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>6</v>
       </c>
@@ -953,7 +957,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>6</v>
       </c>
@@ -970,7 +974,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>6</v>
       </c>
@@ -987,7 +991,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,7 +1008,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>6</v>
       </c>
@@ -1021,7 +1025,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>6</v>
       </c>
@@ -1038,7 +1042,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>6</v>
       </c>
@@ -1055,7 +1059,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>6</v>
       </c>
@@ -1072,7 +1076,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>6</v>
       </c>
@@ -1089,7 +1093,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>6</v>
       </c>
@@ -1106,7 +1110,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>6</v>
       </c>
@@ -1123,7 +1127,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>6</v>
       </c>
@@ -1140,7 +1144,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>6</v>
       </c>
@@ -1157,7 +1161,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>6</v>
       </c>
@@ -1174,7 +1178,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>6</v>
       </c>
@@ -1191,7 +1195,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>6</v>
       </c>
@@ -1208,7 +1212,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>6</v>
       </c>
@@ -1225,7 +1229,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>6</v>
       </c>
@@ -1242,7 +1246,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>6</v>
       </c>
@@ -1259,7 +1263,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>6</v>
       </c>
@@ -1531,7 +1535,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>6</v>
       </c>
@@ -1548,7 +1552,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>6</v>
       </c>
@@ -1559,7 +1563,7 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>6</v>
       </c>
@@ -1570,7 +1574,7 @@
         <v>1954</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>6</v>
       </c>
@@ -1581,7 +1585,7 @@
         <v>1955</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>6</v>
       </c>
@@ -1598,7 +1602,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>6</v>
       </c>
@@ -1615,7 +1619,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>6</v>
       </c>
@@ -1632,7 +1636,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>6</v>
       </c>
@@ -1649,7 +1653,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>6</v>
       </c>
@@ -1666,7 +1670,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>6</v>
       </c>
@@ -1683,7 +1687,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>6</v>
       </c>
@@ -1700,7 +1704,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>6</v>
       </c>
@@ -1717,7 +1721,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>6</v>
       </c>
@@ -1734,7 +1738,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>6</v>
       </c>
@@ -1751,7 +1755,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>6</v>
       </c>
@@ -1768,7 +1772,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>6</v>
       </c>
@@ -1785,7 +1789,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>6</v>
       </c>
@@ -1802,7 +1806,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>6</v>
       </c>
@@ -1819,7 +1823,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>6</v>
       </c>
@@ -1836,7 +1840,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>6</v>
       </c>
@@ -1853,7 +1857,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>6</v>
       </c>
@@ -1870,7 +1874,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>6</v>
       </c>
@@ -1887,7 +1891,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>6</v>
       </c>
@@ -1904,7 +1908,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>6</v>
       </c>
@@ -1921,7 +1925,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>6</v>
       </c>
@@ -1938,7 +1942,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>6</v>
       </c>
@@ -1955,7 +1959,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>6</v>
       </c>
@@ -1972,7 +1976,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>6</v>
       </c>
@@ -1989,7 +1993,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>6</v>
       </c>
@@ -2006,7 +2010,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>6</v>
       </c>
@@ -2023,7 +2027,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>6</v>
       </c>
@@ -2040,7 +2044,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>6</v>
       </c>
@@ -2057,7 +2061,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>6</v>
       </c>
@@ -2074,7 +2078,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>6</v>
       </c>
@@ -2091,7 +2095,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>6</v>
       </c>
@@ -2108,7 +2112,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>6</v>
       </c>
@@ -2125,7 +2129,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>6</v>
       </c>
@@ -2142,7 +2146,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>6</v>
       </c>
@@ -2159,7 +2163,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>6</v>
       </c>
@@ -2176,7 +2180,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>6</v>
       </c>
@@ -2193,7 +2197,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>6</v>
       </c>
@@ -2210,7 +2214,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>6</v>
       </c>
@@ -2227,7 +2231,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>6</v>
       </c>
@@ -2244,7 +2248,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>6</v>
       </c>
@@ -2261,7 +2265,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>6</v>
       </c>
@@ -2278,7 +2282,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>6</v>
       </c>
@@ -2295,7 +2299,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>6</v>
       </c>
@@ -2312,7 +2316,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>6</v>
       </c>
@@ -2584,7 +2588,7 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>6</v>
       </c>
@@ -2601,7 +2605,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>6</v>
       </c>
@@ -2618,7 +2622,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>6</v>
       </c>
@@ -2635,7 +2639,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>6</v>
       </c>
@@ -2652,7 +2656,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>6</v>
       </c>
@@ -2669,7 +2673,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>6</v>
       </c>
@@ -2686,7 +2690,7 @@
         <v>1585</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>6</v>
       </c>
@@ -2703,7 +2707,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>6</v>
       </c>
@@ -2720,7 +2724,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>6</v>
       </c>
@@ -2737,7 +2741,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>6</v>
       </c>
@@ -2754,7 +2758,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>6</v>
       </c>
@@ -2771,7 +2775,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>6</v>
       </c>
@@ -2788,7 +2792,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>6</v>
       </c>
@@ -2805,7 +2809,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>6</v>
       </c>
@@ -2822,7 +2826,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>6</v>
       </c>
@@ -2839,7 +2843,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>6</v>
       </c>
@@ -2856,7 +2860,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>6</v>
       </c>
@@ -2873,7 +2877,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>6</v>
       </c>
@@ -2890,7 +2894,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>6</v>
       </c>
@@ -2907,7 +2911,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>6</v>
       </c>
@@ -2924,7 +2928,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>6</v>
       </c>
@@ -2941,7 +2945,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>6</v>
       </c>
@@ -2958,7 +2962,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>6</v>
       </c>
@@ -2975,7 +2979,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>6</v>
       </c>
@@ -2992,7 +2996,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>6</v>
       </c>
@@ -3009,7 +3013,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>6</v>
       </c>
@@ -3026,7 +3030,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>6</v>
       </c>
@@ -3043,7 +3047,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>6</v>
       </c>
@@ -3060,7 +3064,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>6</v>
       </c>
@@ -3077,7 +3081,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>6</v>
       </c>
@@ -3094,7 +3098,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>6</v>
       </c>
@@ -3111,7 +3115,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>6</v>
       </c>
@@ -3128,7 +3132,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>6</v>
       </c>
@@ -3145,7 +3149,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>6</v>
       </c>
@@ -3162,7 +3166,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>6</v>
       </c>
@@ -3179,7 +3183,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>6</v>
       </c>
@@ -3196,7 +3200,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>6</v>
       </c>
@@ -3213,7 +3217,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>6</v>
       </c>
@@ -3230,7 +3234,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>6</v>
       </c>
@@ -3247,7 +3251,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>6</v>
       </c>
@@ -3264,7 +3268,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>6</v>
       </c>
@@ -3519,7 +3523,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>6</v>
       </c>
@@ -3536,7 +3540,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>6</v>
       </c>
@@ -3553,7 +3557,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>6</v>
       </c>
@@ -3570,7 +3574,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>6</v>
       </c>
@@ -3587,7 +3591,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>6</v>
       </c>
@@ -3604,7 +3608,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>6</v>
       </c>
@@ -3621,7 +3625,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>6</v>
       </c>
@@ -3638,7 +3642,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>6</v>
       </c>
@@ -3655,7 +3659,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>6</v>
       </c>
@@ -3672,7 +3676,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>6</v>
       </c>
@@ -3689,7 +3693,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>6</v>
       </c>
@@ -3706,7 +3710,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>6</v>
       </c>
@@ -3723,7 +3727,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
         <v>6</v>
       </c>
@@ -3740,7 +3744,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
         <v>6</v>
       </c>
@@ -3757,7 +3761,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>6</v>
       </c>
@@ -3774,7 +3778,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>6</v>
       </c>
@@ -3791,7 +3795,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>6</v>
       </c>
@@ -3808,7 +3812,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>6</v>
       </c>
@@ -3825,7 +3829,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>6</v>
       </c>
@@ -3842,7 +3846,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>6</v>
       </c>
@@ -4114,7 +4118,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
         <v>6</v>
       </c>
@@ -4131,7 +4135,7 @@
         <v>1938</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
         <v>6</v>
       </c>
@@ -4148,7 +4152,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
         <v>6</v>
       </c>
@@ -4165,7 +4169,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
         <v>6</v>
       </c>
@@ -4182,7 +4186,7 @@
         <v>3574</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
         <v>6</v>
       </c>
@@ -4199,7 +4203,7 @@
         <v>2920</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>6</v>
       </c>
@@ -4216,7 +4220,7 @@
         <v>3054</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
         <v>6</v>
       </c>
@@ -4233,7 +4237,7 @@
         <v>5856</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
         <v>6</v>
       </c>
@@ -4250,7 +4254,7 @@
         <v>1728</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
         <v>6</v>
       </c>
@@ -4267,7 +4271,7 @@
         <v>6267</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
         <v>6</v>
       </c>
@@ -4284,7 +4288,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
         <v>6</v>
       </c>
@@ -4301,7 +4305,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
         <v>6</v>
       </c>
@@ -4318,7 +4322,7 @@
         <v>2710</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
         <v>6</v>
       </c>
@@ -4335,7 +4339,7 @@
         <v>1854</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
         <v>6</v>
       </c>
@@ -4352,7 +4356,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
         <v>6</v>
       </c>
@@ -4369,7 +4373,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
         <v>6</v>
       </c>
@@ -4386,7 +4390,7 @@
         <v>2097</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
         <v>6</v>
       </c>
@@ -4403,7 +4407,7 @@
         <v>1586</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
         <v>6</v>
       </c>
@@ -4420,7 +4424,7 @@
         <v>1871</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
         <v>6</v>
       </c>
@@ -4437,7 +4441,7 @@
         <v>1804</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
         <v>6</v>
       </c>
@@ -4454,7 +4458,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
         <v>6</v>
       </c>
@@ -4471,7 +4475,7 @@
         <v>2534</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
         <v>6</v>
       </c>
@@ -4488,7 +4492,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
         <v>6</v>
       </c>
@@ -4505,7 +4509,7 @@
         <v>3071</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
         <v>6</v>
       </c>
@@ -4522,7 +4526,7 @@
         <v>2819</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
         <v>6</v>
       </c>
@@ -4539,7 +4543,7 @@
         <v>4363</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
         <v>6</v>
       </c>
@@ -4556,7 +4560,7 @@
         <v>2324</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
         <v>6</v>
       </c>
@@ -4573,7 +4577,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
         <v>6</v>
       </c>
@@ -4590,7 +4594,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
         <v>6</v>
       </c>
@@ -4607,7 +4611,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
         <v>6</v>
       </c>
@@ -4624,7 +4628,7 @@
         <v>3482</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
         <v>6</v>
       </c>
@@ -4641,7 +4645,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
         <v>6</v>
       </c>
@@ -4658,7 +4662,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
         <v>6</v>
       </c>
@@ -4675,7 +4679,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
         <v>6</v>
       </c>
@@ -4692,7 +4696,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
         <v>6</v>
       </c>
@@ -4709,7 +4713,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
         <v>6</v>
       </c>
@@ -4726,7 +4730,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
         <v>6</v>
       </c>
@@ -4743,7 +4747,7 @@
         <v>1591</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
         <v>6</v>
       </c>
@@ -4760,7 +4764,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
         <v>6</v>
       </c>
@@ -4777,7 +4781,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
         <v>6</v>
       </c>
@@ -4794,7 +4798,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
         <v>6</v>
       </c>
@@ -4811,7 +4815,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
         <v>6</v>
       </c>
@@ -4828,7 +4832,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
         <v>6</v>
       </c>
@@ -4845,7 +4849,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
         <v>6</v>
       </c>
@@ -4862,7 +4866,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
         <v>6</v>
       </c>
@@ -4879,7 +4883,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
         <v>6</v>
       </c>
@@ -4896,7 +4900,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
         <v>6</v>
       </c>
@@ -4913,7 +4917,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
         <v>6</v>
       </c>
@@ -4930,7 +4934,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
         <v>6</v>
       </c>
@@ -4947,7 +4951,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
         <v>6</v>
       </c>
@@ -4964,7 +4968,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
         <v>6</v>
       </c>
@@ -5236,7 +5240,7 @@
         <v>2045</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
         <v>6</v>
       </c>
@@ -5253,7 +5257,7 @@
         <v>1513</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
         <v>6</v>
       </c>
@@ -5270,7 +5274,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
         <v>6</v>
       </c>
@@ -5287,7 +5291,7 @@
         <v>1586</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
         <v>6</v>
       </c>
@@ -5304,7 +5308,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
         <v>6</v>
       </c>
@@ -5321,7 +5325,7 @@
         <v>2672</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
         <v>6</v>
       </c>
@@ -5338,7 +5342,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" s="1" t="s">
         <v>6</v>
       </c>
@@ -5355,7 +5359,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="s">
         <v>6</v>
       </c>
@@ -5372,7 +5376,7 @@
         <v>2442</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" s="1" t="s">
         <v>6</v>
       </c>
@@ -5389,7 +5393,7 @@
         <v>2682</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
         <v>6</v>
       </c>
@@ -5406,7 +5410,7 @@
         <v>1576</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="s">
         <v>6</v>
       </c>
@@ -5423,7 +5427,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" s="1" t="s">
         <v>6</v>
       </c>
@@ -5440,7 +5444,7 @@
         <v>1971</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295" s="1" t="s">
         <v>6</v>
       </c>
@@ -5457,7 +5461,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
         <v>6</v>
       </c>
@@ -5474,7 +5478,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" s="1" t="s">
         <v>6</v>
       </c>
@@ -5491,7 +5495,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298" s="1" t="s">
         <v>6</v>
       </c>
@@ -5508,7 +5512,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299" s="1" t="s">
         <v>6</v>
       </c>
@@ -5525,7 +5529,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300" s="1" t="s">
         <v>6</v>
       </c>
@@ -5542,7 +5546,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301" s="1" t="s">
         <v>6</v>
       </c>
@@ -5559,7 +5563,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" s="1" t="s">
         <v>6</v>
       </c>
@@ -5576,7 +5580,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" s="1" t="s">
         <v>6</v>
       </c>
@@ -5593,7 +5597,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304" s="1" t="s">
         <v>6</v>
       </c>
@@ -5610,7 +5614,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305" s="1" t="s">
         <v>6</v>
       </c>
@@ -5627,7 +5631,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306" s="1" t="s">
         <v>6</v>
       </c>
@@ -5644,7 +5648,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307" s="1" t="s">
         <v>6</v>
       </c>
@@ -5661,7 +5665,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308" s="1" t="s">
         <v>6</v>
       </c>
@@ -5678,7 +5682,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309" s="1" t="s">
         <v>6</v>
       </c>
@@ -5695,7 +5699,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="s">
         <v>6</v>
       </c>
@@ -5712,7 +5716,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311" s="1" t="s">
         <v>6</v>
       </c>
@@ -5729,7 +5733,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312" s="1" t="s">
         <v>6</v>
       </c>
@@ -5746,7 +5750,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313" s="1" t="s">
         <v>6</v>
       </c>
@@ -5763,7 +5767,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314" s="1" t="s">
         <v>6</v>
       </c>
@@ -5780,7 +5784,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315" s="1" t="s">
         <v>6</v>
       </c>
@@ -5797,7 +5801,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316" s="1" t="s">
         <v>6</v>
       </c>
@@ -5814,7 +5818,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317" s="1" t="s">
         <v>6</v>
       </c>
@@ -5831,7 +5835,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318" s="1" t="s">
         <v>6</v>
       </c>
@@ -5848,7 +5852,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" s="1" t="s">
         <v>6</v>
       </c>
@@ -5865,7 +5869,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320" s="1" t="s">
         <v>6</v>
       </c>
@@ -6137,7 +6141,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A336" s="1" t="s">
         <v>6</v>
       </c>
@@ -6920,6 +6924,14 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E381" xr:uid="{BAC4FBFF-654B-412A-80D9-5F2C76C9AC86}">
+    <filterColumn colId="2">
+      <customFilters and="1">
+        <customFilter operator="greaterThanOrEqual" val="2000"/>
+        <customFilter operator="lessThanOrEqual" val="2014"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>